--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8EAAAC-A6D7-40FA-A133-6AF1B9E7FF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33815CC-218A-4888-9638-431B07B6C7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1730" yWindow="2170" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -101,13 +101,62 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>CharacterCfg</t>
+  </si>
+  <si>
+    <t>角色表@角色表.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.TbEffect</t>
+  </si>
+  <si>
+    <t>EffectRes</t>
+  </si>
+  <si>
+    <t>特效资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Effect.TbGridEffect</t>
+  </si>
+  <si>
+    <t>GridEffectRes</t>
+  </si>
+  <si>
+    <t>网格特效表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbBattleSkillCfg</t>
+  </si>
+  <si>
+    <t>BattleSkillCfg</t>
+  </si>
+  <si>
+    <t>战斗技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbMoveSkillCfg</t>
+  </si>
+  <si>
+    <t>BattleMoveCfg</t>
+  </si>
+  <si>
+    <t>移动技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +174,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +225,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -556,16 +616,82 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33815CC-218A-4888-9638-431B07B6C7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD224E-34CD-40A0-A611-852D5CD037D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1730" yWindow="2170" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -31,124 +31,139 @@
     <t>value_type</t>
   </si>
   <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>记录类名</t>
+  </si>
+  <si>
+    <t>从excel读取定义</t>
+  </si>
+  <si>
+    <t>文件列表</t>
+  </si>
+  <si>
+    <t>表id字段</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
+    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
+  </si>
+  <si>
+    <t>可以多个，以逗号','分隔</t>
+  </si>
+  <si>
+    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+  </si>
+  <si>
+    <t>取值one|map|list，为空自动为map</t>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>CharacterCfg</t>
+  </si>
+  <si>
+    <t>角色表@角色表.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.TbEffect</t>
+  </si>
+  <si>
+    <t>EffectRes</t>
+  </si>
+  <si>
+    <t>特效资源表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Effect.TbGridEffect</t>
+  </si>
+  <si>
+    <t>GridEffectRes</t>
+  </si>
+  <si>
+    <t>网格特效表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbBattleSkillCfg</t>
+  </si>
+  <si>
+    <t>战斗技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>BattleMoveCfg</t>
+  </si>
+  <si>
+    <t>移动技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbMoveSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>read_schema_from_file</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>记录类名</t>
-  </si>
-  <si>
-    <t>从excel读取定义</t>
-  </si>
-  <si>
-    <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-  </si>
-  <si>
-    <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>CharacterCfg</t>
-  </si>
-  <si>
-    <t>角色表@角色表.xlsx</t>
-  </si>
-  <si>
-    <t>Effect.TbEffect</t>
-  </si>
-  <si>
-    <t>EffectRes</t>
-  </si>
-  <si>
-    <t>特效资源表@资源表.xlsx</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Effect.TbGridEffect</t>
-  </si>
-  <si>
-    <t>GridEffectRes</t>
-  </si>
-  <si>
-    <t>网格特效表@资源表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBattleSkillCfg</t>
-  </si>
-  <si>
-    <t>BattleSkillCfg</t>
-  </si>
-  <si>
-    <t>战斗技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbMoveSkillCfg</t>
-  </si>
-  <si>
-    <t>BattleMoveCfg</t>
-  </si>
-  <si>
-    <t>移动技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表@技能表.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +195,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -209,15 +233,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +257,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,164 +574,304 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{C27A42E7-4A1F-496A-9EA7-46B3F6088DA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD224E-34CD-40A0-A611-852D5CD037D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E481DCAD-C985-4815-86B6-E30F5E36695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="5080" windowWidth="21450" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>技能表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff表@技能表.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +558,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -745,7 +757,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
@@ -871,6 +894,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{C27A42E7-4A1F-496A-9EA7-46B3F6088DA7}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{AA3E834D-F959-45D5-A89B-070F9719799D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E481DCAD-C985-4815-86B6-E30F5E36695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8CE99-DE5D-4729-8D72-0C511555FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="5080" windowWidth="21450" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>网格特效表@资源表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBattleSkillCfg</t>
-  </si>
-  <si>
-    <t>战斗技能表@技能表.xlsx</t>
   </si>
   <si>
     <t>BattleMoveCfg</t>
@@ -148,10 +142,6 @@
   </si>
   <si>
     <t>Battle.TbSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleSkillCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -555,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -586,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -667,7 +657,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -715,11 +705,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -730,24 +720,24 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -757,18 +747,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
@@ -886,15 +865,12 @@
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{C27A42E7-4A1F-496A-9EA7-46B3F6088DA7}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{AA3E834D-F959-45D5-A89B-070F9719799D}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{C27A42E7-4A1F-496A-9EA7-46B3F6088DA7}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{AA3E834D-F959-45D5-A89B-070F9719799D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8CE99-DE5D-4729-8D72-0C511555FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF778E2-E9F7-4E9C-A716-AA780D332665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14550" yWindow="5830" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -130,42 +130,55 @@
     <t>BattleMoveCfg</t>
   </si>
   <si>
+    <t>Battle.TbCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbMoveSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_schema_from_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building.TbBuildingCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>移动技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbCharacter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbMoveSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_schema_from_file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能表@技能表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbBuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑表@建筑表.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,15 +210,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -235,14 +239,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -265,13 +266,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -714,40 +714,51 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
@@ -868,10 +879,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{C27A42E7-4A1F-496A-9EA7-46B3F6088DA7}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{AA3E834D-F959-45D5-A89B-070F9719799D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF778E2-E9F7-4E9C-A716-AA780D332665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB718F1-EC87-48D2-9C18-103EB69CB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="5830" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="4410" windowWidth="21030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>建筑表@建筑表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiuLian.TbXiuLianCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GongFaCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法表@修炼表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界表@修炼表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiuLian.TbLevelCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +234,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -239,15 +272,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,9 +305,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,7 +591,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -756,15 +799,37 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
@@ -879,6 +944,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{5CA59078-AAA4-49AC-B74C-D21C279205BC}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{70691759-BFAF-4656-818E-131BB6D0653F}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{06A8C047-65AF-4B6C-AAB0-072B68EF74D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB718F1-EC87-48D2-9C18-103EB69CB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="4410" windowWidth="21030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +38,9 @@
     <t>value_type</t>
   </si>
   <si>
+    <t>read_schema_from_file</t>
+  </si>
+  <si>
     <t>input</t>
   </si>
   <si>
@@ -100,6 +110,9 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>Battle.TbCharacter</t>
+  </si>
+  <si>
     <t>CharacterCfg</t>
   </si>
   <si>
@@ -127,90 +140,80 @@
     <t>网格特效表@资源表.xlsx</t>
   </si>
   <si>
+    <t>Battle.TbMoveSkillCfg</t>
+  </si>
+  <si>
     <t>BattleMoveCfg</t>
   </si>
   <si>
-    <t>Battle.TbCharacter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbMoveSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>移动技能表@技能表.xlsx</t>
   </si>
   <si>
     <t>Battle.TbSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_schema_from_file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能表@技能表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Battle.TbBuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Buff表@技能表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Building.TbBuildingCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuildingCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动技能表@技能表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑表@建筑表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>XiuLian.TbXiuLianCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GongFaCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功法表@修炼表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiuLian.TbLevelCfg</t>
+  </si>
+  <si>
+    <t>LevelCfg</t>
   </si>
   <si>
     <t>境界表@修炼表.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XiuLian.TbLevelCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZongMen.TbRoleTempCfg</t>
+  </si>
+  <si>
+    <t>RoleTempCfg</t>
+  </si>
+  <si>
+    <t>角色模板表@角色表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +225,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +232,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,12 +240,140 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +386,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -271,60 +575,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,33 +1158,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="11" width="7.58203125" customWidth="1"/>
+    <col min="8" max="8" width="9.91666666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,337 +1195,343 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="4"/>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{5CA59078-AAA4-49AC-B74C-D21C279205BC}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{70691759-BFAF-4656-818E-131BB6D0653F}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{06A8C047-65AF-4B6C-AAB0-072B68EF74D1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BE222-28E1-4EC2-856A-909E34771792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView xWindow="39580" yWindow="7650" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -201,19 +207,25 @@
   </si>
   <si>
     <t>角色模板表@角色表.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.TbEntityCfg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityCfg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体表@资源表.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +237,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,6 +245,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -240,140 +254,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,188 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -575,259 +288,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -845,62 +322,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1158,33 +596,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.91666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
-    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="11" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1288,7 +726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1323,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1351,7 +789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1365,7 +803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1379,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1393,7 +831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -1421,117 +859,131 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="5:5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="5:5">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="5:5">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="5:5">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{1B3080F2-74F9-4520-A255-4EDF942F2751}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BE222-28E1-4EC2-856A-909E34771792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D41D5C8-FDE2-4F28-8914-D3E691BBE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39580" yWindow="7650" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10910" yWindow="4590" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>RoleTempCfg</t>
-  </si>
-  <si>
-    <t>角色模板表@角色表.xlsx</t>
   </si>
   <si>
     <t>Entity.TbEntityCfg</t>
@@ -218,6 +215,22 @@
   </si>
   <si>
     <t>实体表@资源表.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>World.TbWorldUnitCfg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldUnitCfg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色模板表@角色表.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界单位表@世界表.xlsx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +618,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -855,26 +868,37 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
@@ -982,6 +1006,8 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" xr:uid="{1B3080F2-74F9-4520-A255-4EDF942F2751}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{B5B37F11-B4E3-4553-8764-FCBFA4C5C429}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{676C7CD2-2201-420A-AB13-CB639026CF9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D41D5C8-FDE2-4F28-8914-D3E691BBE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10910" yWindow="4590" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -206,39 +200,47 @@
     <t>RoleTempCfg</t>
   </si>
   <si>
+    <t>角色模板表@角色表.xlsx</t>
+  </si>
+  <si>
     <t>Entity.TbEntityCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EntityCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实体表@资源表.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>World.TbWorldUnitCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WorldUnitCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色模板表@角色表.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>世界单位表@世界表.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>World.TbActionCfg</t>
+  </si>
+  <si>
+    <t>ActionCfg</t>
+  </si>
+  <si>
+    <t>行动表@行动表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,7 +252,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -258,7 +259,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,19 +267,148 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +421,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -301,57 +610,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -609,33 +1199,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="11" width="7.58203125" customWidth="1"/>
+    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
+    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
+    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
+    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -702,7 +1292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,7 +1315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -735,15 +1325,15 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="b">
@@ -756,25 +1346,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -788,7 +1378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -802,7 +1392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -816,7 +1406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -830,7 +1420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
@@ -844,7 +1434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -858,7 +1448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -869,147 +1459,158 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="3"/>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{1B3080F2-74F9-4520-A255-4EDF942F2751}"/>
-    <hyperlink ref="E15" r:id="rId2" xr:uid="{B5B37F11-B4E3-4553-8764-FCBFA4C5C429}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{676C7CD2-2201-420A-AB13-CB639026CF9B}"/>
+    <hyperlink ref="E14" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId2" display="世界单位表@世界表.xlsx"/>
+    <hyperlink ref="E13" r:id="rId3" display="角色模板表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,24 +140,6 @@
     <t>网格特效表@资源表.xlsx</t>
   </si>
   <si>
-    <t>Battle.TbMoveSkillCfg</t>
-  </si>
-  <si>
-    <t>BattleMoveCfg</t>
-  </si>
-  <si>
-    <t>移动技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbSkillCfg</t>
-  </si>
-  <si>
-    <t>SkillCfg</t>
-  </si>
-  <si>
-    <t>技能表@技能表.xlsx</t>
-  </si>
-  <si>
     <t>Battle.TbBuffCfg</t>
   </si>
   <si>
@@ -165,6 +147,24 @@
   </si>
   <si>
     <t>Buff表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbEffectCfg</t>
+  </si>
+  <si>
+    <t>EffectCfg</t>
+  </si>
+  <si>
+    <t>Effect表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbConditionCfg</t>
+  </si>
+  <si>
+    <t>ConditionCfg</t>
+  </si>
+  <si>
+    <t>条件表@技能表.xlsx</t>
   </si>
   <si>
     <t>Building.TbBuildingCfg</t>
@@ -240,7 +240,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,146 +721,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -880,10 +870,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1198,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1325,21 +1315,21 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G5" t="s">
@@ -1347,20 +1337,20 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1368,13 +1358,13 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1386,9 +1376,9 @@
         <v>41</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1402,7 +1392,7 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1458,7 +1448,7 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1472,7 +1462,7 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1486,7 +1476,7 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1505,103 +1495,103 @@
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="4"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="4"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="4"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="4"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="4"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="4"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="4"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="4"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -176,7 +176,7 @@
     <t>建筑表@建筑表.xlsx</t>
   </si>
   <si>
-    <t>XiuLian.TbXiuLianCfg</t>
+    <t>XiuLian.TbGongFaCfg</t>
   </si>
   <si>
     <t>GongFaCfg</t>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>网格特效表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbSkillCfg</t>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+  </si>
+  <si>
+    <t>技能表@技能表.xlsx</t>
   </si>
   <si>
     <t>Battle.TbBuffCfg</t>
@@ -1195,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1354,7 +1363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>39</v>
@@ -1390,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -1406,7 +1415,7 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1439,30 +1448,30 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1481,21 +1490,32 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="3"/>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="3"/>
@@ -1593,11 +1613,14 @@
     <row r="49" spans="5:5">
       <c r="E49" s="3"/>
     </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E15" r:id="rId2" display="世界单位表@世界表.xlsx"/>
-    <hyperlink ref="E13" r:id="rId3" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E16" r:id="rId2" display="世界单位表@世界表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId3" display="角色模板表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="15270" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>行动表@行动表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbMisc</t>
+  </si>
+  <si>
+    <t>MiscCfg</t>
+  </si>
+  <si>
+    <t>杂项表@杂项表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1207,21 +1216,21 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
+    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
-    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.6583333333333" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
-    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
-    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.90833333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1517,8 +1526,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="3"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15270" windowHeight="14000"/>
+    <workbookView windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -221,22 +221,13 @@
     <t>实体表@资源表.xlsx</t>
   </si>
   <si>
-    <t>World.TbWorldUnitCfg</t>
-  </si>
-  <si>
-    <t>WorldUnitCfg</t>
-  </si>
-  <si>
-    <t>世界单位表@世界表.xlsx</t>
-  </si>
-  <si>
-    <t>World.TbActionCfg</t>
-  </si>
-  <si>
-    <t>ActionCfg</t>
-  </si>
-  <si>
-    <t>行动表@行动表.xlsx</t>
+    <t>Common.TbExploreNodeCfg</t>
+  </si>
+  <si>
+    <t>ExploreNodeCfg</t>
+  </si>
+  <si>
+    <t>历练表@历练表.xlsx</t>
   </si>
   <si>
     <t>Common.TbMisc</t>
@@ -1213,24 +1204,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.6583333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.90833333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
-    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
+    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
+    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
+    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1499,20 +1490,20 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -1522,26 +1513,15 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="3"/>
@@ -1635,15 +1615,11 @@
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E16" r:id="rId2" display="世界单位表@世界表.xlsx"/>
-    <hyperlink ref="E14" r:id="rId3" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId2" display="角色模板表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>历练表@历练表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbRoleTagCfg</t>
+  </si>
+  <si>
+    <t>RoleTagCfg</t>
+  </si>
+  <si>
+    <t>天赋表@角色表.xlsx</t>
   </si>
   <si>
     <t>Common.TbMisc</t>
@@ -1204,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1503,7 +1512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -1513,15 +1522,26 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="3"/>
@@ -1615,6 +1635,9 @@
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -119,133 +119,121 @@
     <t>角色表@角色表.xlsx</t>
   </si>
   <si>
-    <t>Effect.TbEffect</t>
-  </si>
-  <si>
-    <t>EffectRes</t>
-  </si>
-  <si>
-    <t>特效资源表@资源表.xlsx</t>
+    <t>Common.TbRes</t>
+  </si>
+  <si>
+    <t>ResCfg</t>
+  </si>
+  <si>
+    <t>实体表@资源表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbSkillCfg</t>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+  </si>
+  <si>
+    <t>技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbBuffCfg</t>
+  </si>
+  <si>
+    <t>BuffCfg</t>
+  </si>
+  <si>
+    <t>Buff表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbEffectCfg</t>
+  </si>
+  <si>
+    <t>EffectCfg</t>
+  </si>
+  <si>
+    <t>Effect表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbConditionCfg</t>
+  </si>
+  <si>
+    <t>ConditionCfg</t>
+  </si>
+  <si>
+    <t>条件表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Building.TbBuildingCfg</t>
+  </si>
+  <si>
+    <t>BuildingCfg</t>
+  </si>
+  <si>
+    <t>建筑表@建筑表.xlsx</t>
+  </si>
+  <si>
+    <t>XiuLian.TbGongFaCfg</t>
+  </si>
+  <si>
+    <t>GongFaCfg</t>
+  </si>
+  <si>
+    <t>功法表@修炼表.xlsx</t>
+  </si>
+  <si>
+    <t>XiuLian.TbLevelCfg</t>
+  </si>
+  <si>
+    <t>LevelCfg</t>
+  </si>
+  <si>
+    <t>境界表@修炼表.xlsx</t>
+  </si>
+  <si>
+    <t>ZongMen.TbRoleTempCfg</t>
+  </si>
+  <si>
+    <t>RoleTempCfg</t>
+  </si>
+  <si>
+    <t>角色模板表@角色表.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.TbEntityCfg</t>
+  </si>
+  <si>
+    <t>EntityCfg</t>
+  </si>
+  <si>
+    <t>Common.TbExploreNodeCfg</t>
+  </si>
+  <si>
+    <t>ExploreNodeCfg</t>
+  </si>
+  <si>
+    <t>历练表@历练表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbRoleTagCfg</t>
+  </si>
+  <si>
+    <t>RoleTagCfg</t>
+  </si>
+  <si>
+    <t>天赋表@角色表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbMisc</t>
+  </si>
+  <si>
+    <t>MiscCfg</t>
+  </si>
+  <si>
+    <t>杂项表@杂项表.xlsx</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>Effect.TbGridEffect</t>
-  </si>
-  <si>
-    <t>GridEffectRes</t>
-  </si>
-  <si>
-    <t>网格特效表@资源表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbSkillCfg</t>
-  </si>
-  <si>
-    <t>SkillCfg</t>
-  </si>
-  <si>
-    <t>技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbBuffCfg</t>
-  </si>
-  <si>
-    <t>BuffCfg</t>
-  </si>
-  <si>
-    <t>Buff表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbEffectCfg</t>
-  </si>
-  <si>
-    <t>EffectCfg</t>
-  </si>
-  <si>
-    <t>Effect表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbConditionCfg</t>
-  </si>
-  <si>
-    <t>ConditionCfg</t>
-  </si>
-  <si>
-    <t>条件表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Building.TbBuildingCfg</t>
-  </si>
-  <si>
-    <t>BuildingCfg</t>
-  </si>
-  <si>
-    <t>建筑表@建筑表.xlsx</t>
-  </si>
-  <si>
-    <t>XiuLian.TbGongFaCfg</t>
-  </si>
-  <si>
-    <t>GongFaCfg</t>
-  </si>
-  <si>
-    <t>功法表@修炼表.xlsx</t>
-  </si>
-  <si>
-    <t>XiuLian.TbLevelCfg</t>
-  </si>
-  <si>
-    <t>LevelCfg</t>
-  </si>
-  <si>
-    <t>境界表@修炼表.xlsx</t>
-  </si>
-  <si>
-    <t>ZongMen.TbRoleTempCfg</t>
-  </si>
-  <si>
-    <t>RoleTempCfg</t>
-  </si>
-  <si>
-    <t>角色模板表@角色表.xlsx</t>
-  </si>
-  <si>
-    <t>Entity.TbEntityCfg</t>
-  </si>
-  <si>
-    <t>EntityCfg</t>
-  </si>
-  <si>
-    <t>实体表@资源表.xlsx</t>
-  </si>
-  <si>
-    <t>Common.TbExploreNodeCfg</t>
-  </si>
-  <si>
-    <t>ExploreNodeCfg</t>
-  </si>
-  <si>
-    <t>历练表@历练表.xlsx</t>
-  </si>
-  <si>
-    <t>Common.TbRoleTagCfg</t>
-  </si>
-  <si>
-    <t>RoleTagCfg</t>
-  </si>
-  <si>
-    <t>天赋表@角色表.xlsx</t>
-  </si>
-  <si>
-    <t>Common.TbMisc</t>
-  </si>
-  <si>
-    <t>MiscCfg</t>
-  </si>
-  <si>
-    <t>杂项表@杂项表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1337,7 +1325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1350,198 +1338,180 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
+      <c r="E10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:5">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:5">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="3"/>
@@ -1636,13 +1606,10 @@
     <row r="49" spans="5:5">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E14" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E13" r:id="rId2" display="角色模板表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -191,7 +191,13 @@
     <t>境界表@修炼表.xlsx</t>
   </si>
   <si>
-    <t>ZongMen.TbRoleTempCfg</t>
+    <t>Common.TbRole</t>
+  </si>
+  <si>
+    <t>RoleCfg</t>
+  </si>
+  <si>
+    <t>Common.TbRoleTempCfg</t>
   </si>
   <si>
     <t>RoleTempCfg</t>
@@ -200,7 +206,7 @@
     <t>角色模板表@角色表.xlsx</t>
   </si>
   <si>
-    <t>Entity.TbEntityCfg</t>
+    <t>Common.TbEntityCfg</t>
   </si>
   <si>
     <t>EntityCfg</t>
@@ -1201,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1437,7 +1443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1448,70 +1454,81 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:5">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:5">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="3"/>
@@ -1606,10 +1623,14 @@
     <row r="49" spans="5:5">
       <c r="E49" s="3"/>
     </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E13" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E13" r:id="rId2" display="角色表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -128,13 +128,22 @@
     <t>实体表@资源表.xlsx</t>
   </si>
   <si>
-    <t>Battle.TbSkillCfg</t>
+    <t>Battle.TbSkill</t>
   </si>
   <si>
     <t>SkillCfg</t>
   </si>
   <si>
     <t>技能表@技能表.xlsx</t>
+  </si>
+  <si>
+    <t>Battle.TbMoveSkill</t>
+  </si>
+  <si>
+    <t>MoveSkillCfg</t>
+  </si>
+  <si>
+    <t>移动技能表@技能表.xlsx</t>
   </si>
   <si>
     <t>Battle.TbBuffCfg</t>
@@ -1207,24 +1216,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
+    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
-    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.6583333333333" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
-    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
-    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.90833333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1359,7 +1368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>38</v>
@@ -1395,7 +1404,7 @@
         <v>43</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>44</v>
@@ -1411,7 +1420,7 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1443,63 +1452,63 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:5">
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" customFormat="1" spans="2:5">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -1523,15 +1532,26 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="3"/>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="3"/>
@@ -1626,11 +1646,14 @@
     <row r="50" spans="5:5">
       <c r="E50" s="3"/>
     </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E14" r:id="rId2" display="角色模板表@角色表.xlsx"/>
-    <hyperlink ref="E13" r:id="rId2" display="角色表@角色表.xlsx"/>
+    <hyperlink ref="E16" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId2" display="角色表@角色表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
     <t>建筑表@建筑表.xlsx</t>
   </si>
   <si>
-    <t>XiuLian.TbGongFaCfg</t>
-  </si>
-  <si>
-    <t>GongFaCfg</t>
+    <t>XiuLian.TbBook</t>
+  </si>
+  <si>
+    <t>BookCfg</t>
   </si>
   <si>
     <t>功法表@修炼表.xlsx</t>
@@ -1219,21 +1219,21 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.6583333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.90833333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
-    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
+    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
+    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
+    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2065C-84DB-440C-9DD1-832002FE2163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -170,12 +164,24 @@
     <t>Effect表@技能表.xlsx</t>
   </si>
   <si>
+    <t>Battle.TbConditionCfg</t>
+  </si>
+  <si>
     <t>ConditionCfg</t>
   </si>
   <si>
     <t>条件表@技能表.xlsx</t>
   </si>
   <si>
+    <t>Battle.TbTerrain</t>
+  </si>
+  <si>
+    <t>TerrainCfg</t>
+  </si>
+  <si>
+    <t>地形表@地形表.xlsx</t>
+  </si>
+  <si>
     <t>Building.TbBuildingCfg</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
     <t>天赋表@角色表.xlsx</t>
   </si>
   <si>
+    <t>Common.TbMisc</t>
+  </si>
+  <si>
     <t>MiscCfg</t>
   </si>
   <si>
@@ -251,43 +260,35 @@
     <t>one</t>
   </si>
   <si>
-    <t>Common.TbMisc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbConditionCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TbTerrain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerrainCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形表@地形表.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Common.TbTxt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TxtCfg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文本表@文本表.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.TbItem</t>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+  </si>
+  <si>
+    <t>武器表@道具表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +300,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +308,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,27 +316,140 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +462,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,23 +651,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -390,32 +918,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -673,33 +1240,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="11" width="7.58203125" customWidth="1"/>
+    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
+    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
+    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
+    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -766,7 +1333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -803,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -817,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -831,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -845,7 +1412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -859,7 +1426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -873,280 +1440,292 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>73</v>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="1" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5">
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5">
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5">
       <c r="E52" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{ED56CC56-8C8C-4049-899B-B2DB9B538A74}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{9BCD9B2B-F4EB-4572-A1AE-AF9B0DB0AC7A}"/>
+    <hyperlink ref="E17" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E16" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId2" display="角色表@角色表.xlsx"/>
+    <hyperlink ref="E11" r:id="rId3" display="地形表@地形表.xlsx"/>
+    <hyperlink ref="E21" r:id="rId4" display="文本表@文本表.xlsx"/>
+    <hyperlink ref="E22" r:id="rId4" display="武器表@道具表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -275,7 +275,16 @@
     <t>ItemCfg</t>
   </si>
   <si>
-    <t>武器表@道具表.xlsx</t>
+    <t>武器表@道具表.xlsx,道具表@道具表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbReward</t>
+  </si>
+  <si>
+    <t>RewardCfg</t>
+  </si>
+  <si>
+    <t>奖励表@道具表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1258,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1257,7 +1266,7 @@
     <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
+    <col min="5" max="5" width="40.1785714285714" customWidth="1"/>
     <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
@@ -1625,8 +1634,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="3"/>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="3"/>
@@ -1722,7 +1742,8 @@
     <hyperlink ref="E15" r:id="rId2" display="角色表@角色表.xlsx"/>
     <hyperlink ref="E11" r:id="rId3" display="地形表@地形表.xlsx"/>
     <hyperlink ref="E21" r:id="rId4" display="文本表@文本表.xlsx"/>
-    <hyperlink ref="E22" r:id="rId4" display="武器表@道具表.xlsx"/>
+    <hyperlink ref="E22" r:id="rId4" display="武器表@道具表.xlsx,道具表@道具表.xlsx"/>
+    <hyperlink ref="E23" r:id="rId4" display="奖励表@道具表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>奖励表@道具表.xlsx</t>
+  </si>
+  <si>
+    <t>Common.TbBattle</t>
+  </si>
+  <si>
+    <t>BattleCfg</t>
+  </si>
+  <si>
+    <t>战斗表@战斗表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1267,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1648,8 +1657,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="3"/>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="3"/>
@@ -1744,6 +1764,7 @@
     <hyperlink ref="E21" r:id="rId4" display="文本表@文本表.xlsx"/>
     <hyperlink ref="E22" r:id="rId4" display="武器表@道具表.xlsx,道具表@道具表.xlsx"/>
     <hyperlink ref="E23" r:id="rId4" display="奖励表@道具表.xlsx"/>
+    <hyperlink ref="E24" r:id="rId4" display="战斗表@战斗表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -135,15 +135,6 @@
   </si>
   <si>
     <t>技能表@技能表.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbMoveSkill</t>
-  </si>
-  <si>
-    <t>MoveSkillCfg</t>
-  </si>
-  <si>
-    <t>移动技能表@技能表.xlsx</t>
   </si>
   <si>
     <t>Battle.TbBuffCfg</t>
@@ -1264,24 +1255,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.0803571428571" customWidth="1"/>
+    <col min="2" max="2" width="29.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="40.1785714285714" customWidth="1"/>
-    <col min="6" max="6" width="12.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="40.175" customWidth="1"/>
+    <col min="6" max="6" width="12.6583333333333" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="9.91071428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.0803571428571" customWidth="1"/>
-    <col min="10" max="10" width="9.08035714285714" customWidth="1"/>
-    <col min="11" max="11" width="7.58035714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.90833333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.58333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1424,7 +1415,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>38</v>
@@ -1452,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>44</v>
@@ -1468,7 +1459,7 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1482,7 +1473,7 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1515,59 +1506,59 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>59</v>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1584,8 +1575,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C19" t="s">
@@ -1594,28 +1585,28 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
         <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" customFormat="1" spans="2:5">
       <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1623,7 +1614,7 @@
         <v>78</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>79</v>
@@ -1637,17 +1628,17 @@
         <v>81</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:5">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="b">
@@ -1657,19 +1648,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>88</v>
-      </c>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="3"/>
@@ -1752,19 +1732,16 @@
     <row r="51" spans="5:5">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="实体表@资源表.xlsx"/>
-    <hyperlink ref="E16" r:id="rId2" display="角色模板表@角色表.xlsx"/>
-    <hyperlink ref="E15" r:id="rId2" display="角色表@角色表.xlsx"/>
-    <hyperlink ref="E11" r:id="rId3" display="地形表@地形表.xlsx"/>
-    <hyperlink ref="E21" r:id="rId4" display="文本表@文本表.xlsx"/>
-    <hyperlink ref="E22" r:id="rId4" display="武器表@道具表.xlsx,道具表@道具表.xlsx"/>
-    <hyperlink ref="E23" r:id="rId4" display="奖励表@道具表.xlsx"/>
-    <hyperlink ref="E24" r:id="rId4" display="战斗表@战斗表.xlsx"/>
+    <hyperlink ref="E16" r:id="rId1" display="实体表@资源表.xlsx"/>
+    <hyperlink ref="E15" r:id="rId2" display="角色模板表@角色表.xlsx"/>
+    <hyperlink ref="E14" r:id="rId2" display="角色表@角色表.xlsx"/>
+    <hyperlink ref="E10" r:id="rId3" display="地形表@地形表.xlsx"/>
+    <hyperlink ref="E20" r:id="rId4" display="文本表@文本表.xlsx"/>
+    <hyperlink ref="E21" r:id="rId4" display="武器表@道具表.xlsx,道具表@道具表.xlsx"/>
+    <hyperlink ref="E22" r:id="rId4" display="奖励表@道具表.xlsx"/>
+    <hyperlink ref="E23" r:id="rId4" display="战斗表@战斗表.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/__tables__.xlsx
+++ b/新导表工具/DataTables/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="12770" windowHeight="13830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1365,7 +1365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:11">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:11">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:11">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:11">
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:11">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:11">
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:11">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -1555,13 +1555,13 @@
         <v>65</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="2:5">
+    <row r="21" customFormat="1" spans="2:7">
       <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:5">
+    <row r="22" customFormat="1" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -1648,31 +1648,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="2:7">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="2:7">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="2:7">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="2:7">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="2:7">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="2:7">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="2:7">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="2:7">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="2:7">
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5">
